--- a/статистика.xlsx
+++ b/статистика.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30D87D3-B364-4667-98F7-AF51481E106C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCB835C-6552-40D0-831A-7F8F434EDF73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="408" windowWidth="15960" windowHeight="9900" xr2:uid="{C7F4B6DE-8C6D-4F19-8289-4EDC9FE4DC27}"/>
+    <workbookView xWindow="2496" yWindow="1644" windowWidth="17280" windowHeight="8964" xr2:uid="{C7F4B6DE-8C6D-4F19-8289-4EDC9FE4DC27}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Точность</t>
   </si>
@@ -70,16 +70,52 @@
     <t>trueValidation.pt</t>
   </si>
   <si>
-    <t>Файл</t>
-  </si>
-  <si>
-    <t>тут скорее всего переобучение</t>
-  </si>
-  <si>
     <t>Самый первый рабочий запуск</t>
   </si>
   <si>
     <t>вернулся в Collab из PyCharm</t>
+  </si>
+  <si>
+    <t>Исправил работу полносвязных слоев и добавил LeakyReLU</t>
+  </si>
+  <si>
+    <t>Inception v3 + размерность картинки поднял до 300х300</t>
+  </si>
+  <si>
+    <t>тут какой то косяк</t>
+  </si>
+  <si>
+    <t>Файл или Комментарий</t>
+  </si>
+  <si>
+    <t>train loss: 0.5975, valid loss: 1.0664</t>
+  </si>
+  <si>
+    <t>resnet152 + размерность картинки поднял до 300х300</t>
+  </si>
+  <si>
+    <t>где то явно ошибка</t>
+  </si>
+  <si>
+    <t>GoogleNet, 15 эпох</t>
+  </si>
+  <si>
+    <t>Resnext 256x256, 12 эпох</t>
+  </si>
+  <si>
+    <t>train loss: 0.4333, valid loss: 0.9965</t>
+  </si>
+  <si>
+    <t>Ансамбль Resnext и GoogleNet</t>
+  </si>
+  <si>
+    <t>DenseNet, 20 эпох</t>
+  </si>
+  <si>
+    <t>Ансамбль Resnext, GoogleNet, DenseNet</t>
+  </si>
+  <si>
+    <t>Ансамбль Resnext, GoogleNet, DenseNet, resnet152</t>
   </si>
 </sst>
 </file>
@@ -158,10 +194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -197,6 +229,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,162 +555,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19136536-40E7-47D2-9304-C772484FD790}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="9">
+        <v>0.78674273295300101</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.74354729489292604</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6.5489925247691996E-2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.77995110024449799</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.79489269220320502</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.79696048632218797</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.80790273556230996</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.80972644376899605</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.80182370820668603</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11">
-        <v>0.78674273295300101</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0.74354729489292604</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13">
-        <v>6.5489925247691996E-2</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B12" s="9">
+        <v>0.814589665653495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11">
-        <v>0.77995110024449799</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0.79489269220320502</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0.79696048632218797</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11">
-        <v>0.80790273556230996</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0.80972644376899605</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="B13" s="9">
+        <v>0.68449848024316096</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.64802848802431601</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.78784194528875295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.72948328267477203</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="10">
         <v>0.80182370820668603</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
+      <c r="A18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.804255319148936</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
+      <c r="A19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.82188449848024303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.84741641337385998</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
@@ -696,8 +784,9 @@
       <c r="B27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
